--- a/3080.xlsx
+++ b/3080.xlsx
@@ -456,11 +456,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -473,11 +468,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,11 +480,6 @@
           <t>$ 489</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,11 +492,6 @@
           <t>$ 489</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -524,11 +504,6 @@
           <t>$ 1,699</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -541,11 +516,6 @@
           <t>$ 1,699</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -558,11 +528,6 @@
           <t>$ 739</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -575,11 +540,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -592,11 +552,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -609,11 +564,6 @@
           <t>$ 755</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -626,11 +576,6 @@
           <t>$ 514</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -643,11 +588,6 @@
           <t>$ 959</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -660,11 +600,6 @@
           <t>$ 959</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -677,11 +612,6 @@
           <t>$ 1,599</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -694,11 +624,6 @@
           <t>$ 1,599</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -711,11 +636,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -728,11 +648,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -745,11 +660,6 @@
           <t>$ 579</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -762,11 +672,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -779,11 +684,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -796,11 +696,6 @@
           <t>$ 549</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -813,11 +708,6 @@
           <t>$ 469</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -830,11 +720,6 @@
           <t>$ 1,199</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -847,11 +732,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -864,11 +744,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -881,11 +756,6 @@
           <t>$ 479</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -898,11 +768,6 @@
           <t>$ 479</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -915,11 +780,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -932,11 +792,6 @@
           <t>$ 459</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -949,11 +804,6 @@
           <t>$ 459</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,11 +816,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -983,11 +828,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1000,11 +840,6 @@
           <t>$ 1,399</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1017,11 +852,6 @@
           <t>$ 1,399</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1034,11 +864,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1051,11 +876,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1068,11 +888,6 @@
           <t>$ 399</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1085,11 +900,6 @@
           <t>$ 399</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1102,11 +912,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1119,11 +924,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1136,11 +936,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1153,11 +948,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1170,11 +960,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1187,11 +972,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1204,11 +984,6 @@
           <t>$ 1,799</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1221,11 +996,6 @@
           <t>$ 628</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1238,11 +1008,6 @@
           <t>$ 628</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1255,11 +1020,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1272,11 +1032,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1289,11 +1044,6 @@
           <t>$ 638</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1306,11 +1056,6 @@
           <t>$ 638</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1323,11 +1068,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1340,11 +1080,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1357,11 +1092,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1374,11 +1104,6 @@
           <t>$ 459</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1391,11 +1116,6 @@
           <t>$ 459</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1408,11 +1128,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1425,11 +1140,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1442,11 +1152,6 @@
           <t>$ 593</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1459,11 +1164,6 @@
           <t>$ 593</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1476,11 +1176,6 @@
           <t>$ 1,165</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1493,11 +1188,6 @@
           <t>$ 1,165</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1510,11 +1200,6 @@
           <t>$ 769</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1527,11 +1212,6 @@
           <t>$ 769</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1544,11 +1224,6 @@
           <t>$ 663</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1561,11 +1236,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1578,11 +1248,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1595,11 +1260,6 @@
           <t>$ 789</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1612,11 +1272,6 @@
           <t>$ 789</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1629,11 +1284,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1646,11 +1296,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1663,11 +1308,6 @@
           <t>$ 449</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1680,11 +1320,6 @@
           <t>$ 449</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1697,11 +1332,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1714,11 +1344,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1731,11 +1356,6 @@
           <t>$ 1,399</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1748,11 +1368,6 @@
           <t>$ 1,399</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1765,11 +1380,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1782,11 +1392,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1799,11 +1404,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1816,11 +1416,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1833,11 +1428,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1850,11 +1440,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1867,11 +1452,6 @@
           <t>$ 549</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1884,11 +1464,6 @@
           <t>$ 549</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1901,11 +1476,6 @@
           <t>$ 444</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1918,11 +1488,6 @@
           <t>$ 444</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1935,11 +1500,6 @@
           <t>$ 658</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1952,11 +1512,6 @@
           <t>$ 658</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1969,11 +1524,6 @@
           <t>$ 549</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1986,11 +1536,6 @@
           <t>$ 1,059</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2003,11 +1548,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2020,11 +1560,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2037,11 +1572,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2054,11 +1584,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2071,11 +1596,6 @@
           <t>$ 399</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2088,11 +1608,6 @@
           <t>$ 399</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2105,11 +1620,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2122,11 +1632,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2139,11 +1644,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2156,11 +1656,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2173,11 +1668,6 @@
           <t>$ 769</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2190,11 +1680,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2207,11 +1692,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2224,11 +1704,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2241,11 +1716,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2258,11 +1728,6 @@
           <t>$ 659</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2275,11 +1740,6 @@
           <t>$ 659</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2292,11 +1752,6 @@
           <t>$ 1,111</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2309,11 +1764,6 @@
           <t>$ 1,111</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2326,11 +1776,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2343,11 +1788,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2360,11 +1800,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2377,11 +1812,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2394,11 +1824,6 @@
           <t>$ 596</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2411,11 +1836,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2428,11 +1848,6 @@
           <t>$ 989</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2445,11 +1860,6 @@
           <t>$ 989</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2462,11 +1872,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2479,11 +1884,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2496,11 +1896,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2513,11 +1908,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2530,11 +1920,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2547,11 +1932,6 @@
           <t>$ 1,240</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2564,11 +1944,6 @@
           <t>$ 1,240</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2581,11 +1956,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2598,11 +1968,6 @@
           <t>$ 639</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2615,11 +1980,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2632,11 +1992,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2649,11 +2004,6 @@
           <t>$ 779</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2666,11 +2016,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2683,11 +2028,6 @@
           <t>$ 1,290</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2700,11 +2040,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2717,11 +2052,6 @@
           <t>$ 995</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2734,11 +2064,6 @@
           <t>$ 995</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2751,11 +2076,6 @@
           <t>$ 1,120</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2768,11 +2088,6 @@
           <t>$ 449</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2785,11 +2100,6 @@
           <t>$ 449</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2802,11 +2112,6 @@
           <t>$ 659</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2819,11 +2124,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2836,11 +2136,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2853,11 +2148,6 @@
           <t>$ 1,399</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2870,11 +2160,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2887,11 +2172,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2904,11 +2184,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2921,11 +2196,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2938,11 +2208,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2955,11 +2220,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2972,11 +2232,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2989,11 +2244,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3006,11 +2256,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3023,11 +2268,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3040,11 +2280,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3057,11 +2292,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3074,11 +2304,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3091,11 +2316,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3108,11 +2328,6 @@
           <t>$ 739</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3125,11 +2340,6 @@
           <t>$ 739</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3142,11 +2352,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3159,11 +2364,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3176,11 +2376,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3193,11 +2388,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3210,11 +2400,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3227,11 +2412,6 @@
           <t>$ 659</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3244,11 +2424,6 @@
           <t>$ 659</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3261,11 +2436,6 @@
           <t>$ 649</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3278,11 +2448,6 @@
           <t>$ 649</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3296,11 +2461,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3313,11 +2473,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3330,11 +2485,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3347,11 +2497,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3364,11 +2509,6 @@
           <t>$ 619</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3381,11 +2521,6 @@
           <t>$ 619</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3398,11 +2533,6 @@
           <t>$ 780</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3415,11 +2545,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3432,11 +2557,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3449,11 +2569,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3466,11 +2581,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3483,11 +2593,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3500,11 +2605,6 @@
           <t>$ 899</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3517,11 +2617,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3534,11 +2629,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3551,11 +2641,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3568,11 +2653,6 @@
           <t>$ 999</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3585,11 +2665,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3602,11 +2677,6 @@
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3619,11 +2689,6 @@
           <t>$ 679</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3636,11 +2701,6 @@
           <t>$ 679</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3653,11 +2713,6 @@
           <t>$ 699</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3670,60 +2725,40 @@
           <t>$ 699</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 959</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 959</t>
         </is>
       </c>
     </row>
@@ -3738,11 +2773,6 @@
           <t>$ 769</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3755,128 +2785,88 @@
           <t>$ 769</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
+          <t>RTX3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,059</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RTX3080 SUPRIM X 10G</t>
+          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,059</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>$ 639</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 639</t>
         </is>
       </c>
     </row>
@@ -3891,11 +2881,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3908,11 +2893,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3925,11 +2905,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3942,11 +2917,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3959,11 +2929,6 @@
           <t>$ 638</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3976,11 +2941,6 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3993,621 +2953,436 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 619</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio</t>
+          <t>3080Ventus3X10GOCSNRFB</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 619</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3080Ventus3X10GOCSNRFB</t>
+          <t>RTX 3080 ti Gaming X Trio</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 599</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti Ventus 3X 12G</t>
+          <t>TUF-RTX 3080-GAMING</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 599</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 769</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>RTX 3080 Ti Ventus 3X 12G</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>$ 769</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 599</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,159</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TUF-RTX 3080-GAMING</t>
+          <t>3080 Ti Ventus 3X 01</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 599</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,159</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X 01</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 739</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 699</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 1,190</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 1,190</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>$ 699</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 739</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 769</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 769</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 899</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 899</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 639</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 639</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 749</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 749</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 779</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,137</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,137</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 638</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 639</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 638</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 639</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$ 794</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$ 980</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 779</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>$ 980</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 739</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>ZOTAC-RTX3080TI-12G</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 1,095</t>
         </is>
       </c>
     </row>
@@ -4622,11 +3397,6 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4639,111 +3409,76 @@
           <t>$ 1,099</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 794</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ZOTAC-RTX3080TI-12G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 769</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>$ 749</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 769</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>$ 749</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 980</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>$ 769</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 980</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>$ 769</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 739</t>
         </is>
       </c>
     </row>
@@ -4758,43 +3493,28 @@
           <t>$ 1,095</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 739</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 999</t>
         </is>
       </c>
     </row>
@@ -4809,298 +3529,208 @@
           <t>$ 885</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 739</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>TUF-RTX3080TI-12G-SNRFB</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 739</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>$ 999</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 879</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>$ 999</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 879</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 638</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>$ 739</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 638</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-SNRFB</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>$ 739</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 885</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>$ 739</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>$ 885</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 799</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>$ 999</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>$ 879</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 999</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>$ 879</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 1,099</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>$ 779</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 999</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080-10G-GA</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>$ 779</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 999</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>$ 999</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 1,200</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>$ 999</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
+          <t>$ 779</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>STRIX-RTX3080-10G-GA</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>$ 1,200</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
+          <t>$ 779</t>
         </is>
       </c>
     </row>
@@ -5115,11 +3745,6 @@
           <t>$ 879</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5132,11 +3757,6 @@
           <t>$ 879</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5149,11 +3769,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5166,11 +3781,6 @@
           <t>$ 3,427</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5183,11 +3793,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -5200,11 +3805,6 @@
           <t>$ 599</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -5217,11 +3817,6 @@
           <t>$ 799</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5234,11 +3829,6 @@
           <t>$ 729</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -5251,11 +3841,6 @@
           <t>$ 729</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -5268,11 +3853,6 @@
           <t>$ 419</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5285,11 +3865,6 @@
           <t>$ 419</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -5302,11 +3877,6 @@
           <t>$ 649</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -5317,11 +3887,6 @@
       <c r="B289" t="inlineStr">
         <is>
           <t>$ 649</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>No shipping information available</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -456,6 +456,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +473,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +490,11 @@
           <t>$ 489</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +507,11 @@
           <t>$ 489</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +524,11 @@
           <t>$ 1,699</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +541,11 @@
           <t>$ 1,699</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -528,6 +558,11 @@
           <t>$ 739</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +575,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -552,28 +592,43 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BIOSTAR NEW GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Graphics Card NVIDIA RTX 3080 10GB Gaming Video Card 8Pin GPU Gamer</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$ 755</t>
+          <t>$ 514</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>BIOSTAR NEW GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Graphics Card NVIDIA RTX 3080 10GB Gaming Video Card 8Pin GPU Gamer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$ 514</t>
+          <t>$ 755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -588,6 +643,11 @@
           <t>$ 959</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -600,6 +660,11 @@
           <t>$ 959</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -609,7 +674,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$ 1,599</t>
+          <t>$ 1,699</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -621,7 +691,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$ 1,599</t>
+          <t>$ 1,699</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -636,6 +711,11 @@
           <t>$ 599</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -648,6 +728,11 @@
           <t>$ 599</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -660,6 +745,11 @@
           <t>$ 579</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -672,6 +762,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -684,6 +779,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -696,160 +796,230 @@
           <t>$ 549</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR-</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$ 469</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA GAMING Video Card, 12G-P5-3955-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>TUF-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$ 1,199</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card TUF-RTX3080TI-O12G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA GAMING Video Card, 12G-P5-3955-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,199</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-G</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR-</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 469</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>ZOTAC GeForce RTX 3080 Ti Trinity OC Graphics Card, 12GB GDDR6X 384-bit 19 Gbps PCIe 4.0, IceStorm 2.0 Advanced Cooling, Spectra 2.0 RGB Lighting ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 479</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RTX 3080 O10G V2-</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>$ 479</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti Trinity OC Graphics Card, 12GB GDDR6X 384-bit 19 Gbps PCIe 4.0, IceStorm 2.0 Advanced Cooling, Spectra 2.0 RGB Lighting ZT-A30810J-10P</t>
+          <t>RTX 3080 O10G V2-</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 479</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC 10GB GDDR6X 320-bit 19 Gbps PCIE 4.0 Gaming Graphics Card, IceStorm 2.0 Advanced Cooling, SPECTRA 2.0 RGB Lighting, ZT-A30800J-10P</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$ 459</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZT-A30800J-10P</t>
+          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$ 459</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Ti Gaming OC 12G Graphics Card, 3X WINDFORCE Fans, 12GB 384-Bit GDDR6X,</t>
+          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC 10GB GDDR6X 320-bit 19 Gbps PCIE 4.0 Gaming Graphics Card, IceStorm 2.0 Advanced Cooling, SPECTRA 2.0 RGB Lighting, ZT-A30800J-10P</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 464</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GV 3080 Ti Gaming OC 12G</t>
+          <t>ZT-A30800J-10P</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 464</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card GEFORCE RTX 3080 Ti FE</t>
+          <t>GIGABYTE GeForce RTX 3080 Ti Gaming OC 12G Graphics Card, 3X WINDFORCE Fans, 12GB 384-Bit GDDR6X,</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GEFORCE RTX 3080 Ti FE</t>
+          <t>GV 3080 Ti Gaming OC 12G</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -864,6 +1034,11 @@
           <t>$ 899</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -876,400 +1051,570 @@
           <t>$ 899</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Turbo 10GB GDDR6 GV-N3080TURBO-10GD Rev2.0 Video Graphic Card GPU</t>
+          <t>NVIDIA GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card GEFORCE RTX 3080 Ti FE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 1,399</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GV-N3080TURBO-10GD Rev2.0-R</t>
+          <t>GEFORCE RTX 3080 Ti FE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 1,399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>GIGABYTE GeForce RTX 3080 Turbo 10GB GDDR6 GV-N3080TURBO-10GD Rev2.0 Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 399</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>GV-N3080TURBO-10GD Rev2.0-R</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 399</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RTX3080GamZTrio10LHR</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-01</t>
+          <t>RTX3080GamZTrio10LHR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME WATERFORCE WB 10G (rev. 2.0) Graphics Card, WATERFORCE Water Block Cooling System, 10GB 320-bit GDDR6X, GV-N3080AORUSX WB-10GD Rev2.0 Video Card (LHR) -OPENBOX</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$ 1,799</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 10GB TUF GAMING V2 GDDR6X Video Graphics Card GPU</t>
+          <t>TUF-RTX3080TI-O12G-01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$ 628</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-V2-GAMING R</t>
+          <t>ASUS GeForce RTX 3080 10GB TUF GAMING V2 GDDR6X Video Graphics Card GPU</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>$ 628</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>TUF-RTX3080-10G-V2-GAMING R</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 628</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME WATERFORCE WB 10G (rev. 2.0) Graphics Card, WATERFORCE Water Block Cooling System, 10GB 320-bit GDDR6X, GV-N3080AORUSX WB-10GD Rev2.0 Video Card (LHR) -OPENBOX</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,799</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TUF3080O10GV2GAMINGSNRFB</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING -OPENBOX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 459</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING -OPENBOX</t>
+          <t>RTX 3080 GAMING X TRIO--</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 459</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$ 459</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO--</t>
+          <t>TUF-RTX3080-O10G-V2-</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$ 459</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING LHR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 593</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-O10G-V2-</t>
+          <t>STRIX-RTX3080-O10G-V2SNRFB</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 593</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING LHR</t>
+          <t>NVIDIA GeForce RTX 3080 Founders Edition 10GB GDDR6 3080 FE Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$ 593</t>
+          <t>$ 1,165</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080-O10G-V2SNRFB</t>
+          <t>3080 FE-R</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$ 593</t>
+          <t>$ 1,165</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Founders Edition 10GB GDDR6 3080 FE Video Graphic Card GPU</t>
+          <t>ASUS GeForce RTX 3080 ROG STRIX WHITE 10GB GDDR6 ROG-STRIX-RTX3080-O10G-WHITE Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$ 1,165</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3080 FE-R</t>
+          <t>ROG-3080-O10G-WHITE-R</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$ 1,165</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 ROG STRIX WHITE 10GB GDDR6 ROG-STRIX-RTX3080-O10G-WHITE Video Graphic Card GPU</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROG-3080-O10G-WHITE-R</t>
+          <t>3080tiVentus3X12GOC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 BLACK GAMING Video Card, 10G-P5-3881-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, LHR</t>
+          <t>NVIDIA GeForce RTX 3080 Ti 12GB Founders Edition GDDR6X PCI Express 4.0 Video Card GEFORCE RTX 3080 Ti FE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$ 663</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti 12GB Founders Edition GDDR6X PCI Express 4.0 Video Card GEFORCE RTX 3080 Ti FE</t>
+          <t>RTX 3080 Ti 12GB Founders Edition</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti 12GB Founders Edition</t>
+          <t>ASUS GeForce RTX 3080 Gundam 10GB GDDR6 ROG-STRIX-RTX3080-O10G-GUNDAM Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 789</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Gundam 10GB GDDR6 ROG-STRIX-RTX3080-O10G-GUNDAM Video Graphic Card GPU</t>
+          <t>ROG-3080-O10G-GUNDAM-R</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>$ 789</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ROG-3080-O10G-GUNDAM-R</t>
+          <t>EVGA GeForce RTX 3080 XC3 BLACK GAMING Video Card, 10G-P5-3881-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, LHR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$ 789</t>
+          <t>$ 663</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -1284,6 +1629,11 @@
           <t>$ 639</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1296,6 +1646,11 @@
           <t>$ 639</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1308,6 +1663,11 @@
           <t>$ 449</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1320,28 +1680,43 @@
           <t>$ 449</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ASUS GeForce RTX 3080 TI TURBO 12GB GDDR6 TURBO-RTX3080TI-12G Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 549</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>TURBO-3080TI-12G-R</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 549</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -1356,6 +1731,11 @@
           <t>$ 1,399</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1368,412 +1748,587 @@
           <t>$ 1,399</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOC</t>
+          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
+          <t>PNY GeForce RTX 3080 Uprising Triple Fan 10GB GDDR6 VCG308010TFMPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 399</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O1</t>
+          <t>VCG308010TFMPB-R</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 399</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 658</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>GV-N3080AORUS M-10GD Rev2.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 658</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 TI TURBO 12GB GDDR6 TURBO-RTX3080TI-12G Video Graphic Card GPU</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 444</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TURBO-3080TI-12G-R</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 444</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
+          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
+          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 549</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD Rev2.</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 1,059</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
+          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS M-10GD (rev. 3.0) (LHR)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition</t>
+          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Uprising Triple Fan 10GB GDDR6 VCG308010TFMPB Video Graphic Card GPU</t>
+          <t>Nvidia 3080 Founders Edition</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>VCG308010TFMPB-R</t>
+          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS M-10GD (rev. 3.0) (LHR)</t>
+          <t>ROG-LC-3080TI-O12G-GAM-R</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ROG-LC-3080TI-O12G-GAM-R</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
+          <t>RTX3080GamZTrio10LH</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RTX3080GamZTrio10LH</t>
+          <t>RTX 3080 MASTER 10G LHR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
+          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,111</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>VCG308010LTFXPPB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,111</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RTX 3080 MASTER 10G LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 596</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VCG308010LTFXPPB</t>
+          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 989</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX3080-O10G-NOCTUA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 989</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -1788,6 +2343,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1800,6 +2360,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1809,668 +2374,948 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
+          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$ 596</t>
+          <t>$ 1,240</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>STX-LC-RTX3080TI-O12SNRFB</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,240</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-NOCTUA</t>
+          <t>3080 Ti SUPRIM X</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3080 Ti SUPRIM X</t>
+          <t>ROG-STRIX-RTX3080-O1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Video Card</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
+          <t>TUF-RTX3080-10G-GAMI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12SNRFB</t>
+          <t>GV-N3080VISION OC-10GD REV2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
+          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 779</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GV-N3080VISION OC-10GD REV2</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Video Card</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMI</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,290</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 995</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
+          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 995</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$ 1,290</t>
+          <t>$ 449</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>TURBO-3080-10G-V2 SR-R</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 449</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 638</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>TUF3080O10GV2GAMINGSNRFB</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 638</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$ 1,120</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
+          <t>RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TURBO-3080-10G-V2 SR-R</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
+          <t>RTX 3080 O10G V2-</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ROG-STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
+          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 1,120</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHR</t>
+          <t>TUF-3080TI-12G-G-R</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,399</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12G</t>
+          <t>RTX3080SuprimX10GLHR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RTX 3080 O10G V2-</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>$25.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>$25.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TUF-3080TI-12G-G-R</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti FTW3 Ultra 12GB GDDR6X 12G-P5-3967-KR Video Graphic Card GPU</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>ROG-3080-10G-GAM-R</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ROG-3080-10G-GAM-R</t>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
+(LHR)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
-(LHR)</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
@@ -2485,6 +3330,11 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2497,1396 +3347,1981 @@
           <t>$ 799</t>
         </is>
       </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>RTX 3080 SUPRIM X 10G G</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$ 780</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G G</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G LHR</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX 3080Ti-12G6X PGF-01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X PGF-01</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 679</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 959</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>-RTX3080-O10G-WHITE-V2</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RTX3080 SUPRIM X 10G</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
+          <t>RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>3080Ventus3X10GOCSNRFB</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
+          <t>TUF-RTX 3080-GAMING</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti Ventus 3X 12G O</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3080Ventus3X10GOCSNRFB</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TUF-RTX 3080-GAMING</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti Ventus 3X 12G</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
+          <t>$ 899</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X 01</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
+          <t>$ 749</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 749</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,137</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,137</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
+          <t>$ 639</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 779</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 794</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 769</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>TUF-RTX3080TI-12G-SNRFB</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 739</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 638</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ZOTAC-RTX3080TI-12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 779</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
+          <t>STRIX-RTX3080-10G-GA</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 779</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ZT-A30800K-10PLHR</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 999</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>TUF-RTX3080TI-O12G-01</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 FTW3 Ultra 10GB GDDR6X 10G-P5-3897-KL Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>$ 980</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
+          <t>EVGA GeForce RTX 3080 Ti FTW3 Ultra 12GB GDDR6X 12G-P5-3967-KR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>$ 980</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 3,427</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ZOTAC Trinity OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>GIGABYTE GeForce RTX 3080 Aorus Xtreme Waterforce 10GB GDDR6 GV-N3080AORUSX W-10GD Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>GV-N3080AORUSX W-10GD-R</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 599</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE GeForce RTX 3080 Ti Aorus Xtreme Waterforce 12GB GDDR6X GV-N308TAORUSX W-12GD Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 780</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
+          <t>PNY GeForce RTX 3080 Ti Uprising Epic-X 12GB GDDR6X VCG3080T12TFXMPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 729</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-SNRFB</t>
+          <t>VCG3080T12TFXMPB-R</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 729</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>PNY GeForce RTX 3080 XLR8 Gaming REVEL EPIC-X 10GB GDDR6X VCG308010TFXPPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 419</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>VCG308010TFXPPB-MR</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 419</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 1,059</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 1,059</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti Video Card TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Special Shipping</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>TUF-RTX3080TI-12G-GA</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Special Shipping</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>RTX 3080 Ti Ventus 3X 12G O</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
+          <t>RTX 3080 ti Gaming X Trio</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>RTX 3080 Ti Ventus 3X 12G</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>$ 1,200</t>
+          <t>$ 1,159</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
+          <t>3080 Ti Ventus 3X 01</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 1,159</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080-10G-GA</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 1,190</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
+          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,190</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-01</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 Ultra 10GB GDDR6X 10G-P5-3897-KL Video Graphic Card GPU</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 980</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
+          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>$ 3,427</t>
+          <t>$ 980</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Aorus Xtreme Waterforce 10GB GDDR6 GV-N3080AORUSX W-10GD Video Graphic Card GPU</t>
+          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>GV-N3080AORUSX W-10GD-R</t>
+          <t>ZOTAC-RTX3080TI-12G</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Ti Aorus Xtreme Waterforce 12GB GDDR6X GV-N308TAORUSX W-12GD Video Graphic Card GPU</t>
+          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Ti Uprising Epic-X 12GB GDDR6X VCG3080T12TFXMPB Video Graphic Card GPU</t>
+          <t>ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$ 729</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>VCG3080T12TFXMPB-R</t>
+          <t>ZOTAC Trinity OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>$ 729</t>
+          <t>$ 1,095</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 XLR8 Gaming REVEL EPIC-X 10GB GDDR6X VCG308010TFXPPB Video Graphic Card GPU</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>$ 419</t>
+          <t>$ 885</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>VCG308010TFXPPB-MR</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$ 419</t>
+          <t>$ 1,099</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti Video Card TUF-RTX3080TI-12G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 885</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-GA</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 1,200</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Shipping</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>rated out of 5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Number of reviews</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -461,6 +471,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -478,6 +493,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,6 +515,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -512,6 +537,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -529,6 +559,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rated 2.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -546,6 +581,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>rated 2.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -563,6 +603,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -580,6 +625,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -597,6 +647,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +669,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -631,6 +691,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -648,6 +713,11 @@
           <t>$15.00 Shipping</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -665,6 +735,11 @@
           <t>$15.00 Shipping</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -682,6 +757,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -699,6 +779,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -716,6 +801,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -733,6 +823,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -750,6 +845,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -767,6 +867,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -784,6 +889,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -801,6 +911,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>rated 4.4 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -818,6 +933,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -835,6 +955,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -852,38 +977,53 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR-</t>
+          <t>ZOTAC GeForce RTX 3080 Ti Trinity OC Graphics Card, 12GB GDDR6X 384-bit 19 Gbps PCIe 4.0, IceStorm 2.0 Advanced Cooling, Spectra 2.0 RGB Lighting ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$ 469</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti Trinity OC Graphics Card, 12GB GDDR6X 384-bit 19 Gbps PCIe 4.0, IceStorm 2.0 Advanced Cooling, Spectra 2.0 RGB Lighting ZT-A30810J-10P</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR-</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 469</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
@@ -903,6 +1043,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -920,6 +1065,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -937,6 +1087,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -954,6 +1109,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -971,6 +1131,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>rated 4.1 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -988,6 +1153,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>rated 4.1 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1005,6 +1175,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>rated 4.1 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1022,6 +1197,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>rated 4.1 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1039,6 +1219,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1056,6 +1241,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1073,6 +1263,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1090,6 +1285,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1107,6 +1307,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1124,6 +1329,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1141,6 +1351,11 @@
           <t>$7.50 Shipping</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1158,6 +1373,11 @@
           <t>$7.50 Shipping</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1175,6 +1395,11 @@
           <t>$7.50 Shipping</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1192,6 +1417,11 @@
           <t>$7.50 Shipping</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1209,6 +1439,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1226,6 +1461,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1243,6 +1483,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1260,6 +1505,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1277,6 +1527,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1294,6 +1549,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1311,6 +1571,11 @@
           <t>$6.00 Shipping</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1328,6 +1593,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1345,6 +1615,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1362,6 +1637,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1379,6 +1659,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1396,6 +1681,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1413,6 +1703,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1430,6 +1725,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1447,6 +1747,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1464,6 +1769,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1481,6 +1791,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1498,6 +1813,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1515,6 +1835,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1532,6 +1857,11 @@
           <t>$7.00 Shipping</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1549,6 +1879,11 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1566,589 +1901,764 @@
           <t>Free Shipping</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Gundam 10GB GDDR6 ROG-STRIX-RTX3080-O10G-GUNDAM Video Graphic Card GPU</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$ 789</t>
+          <t>$ 658</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROG-3080-O10G-GUNDAM-R</t>
+          <t>GV-N3080AORUS M-10GD Rev2.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$ 789</t>
+          <t>$ 658</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 BLACK GAMING Video Card, 10G-P5-3881-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, LHR</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$ 663</t>
+          <t>$ 444</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (R. 2.0) LHR</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 444</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>rated 4.8 out of 5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>N3080VISION OC-10GD (R. 2.0</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080EAGLE OC-10GD G20-R</t>
+          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GV-N3080EAGLE OC-10GD G20-R</t>
+          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 549</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 TI TURBO 12GB GDDR6 TURBO-RTX3080TI-12G Video Graphic Card GPU</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 729</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>rated 3.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TURBO-3080TI-12G-R</t>
+          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>rated 3.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6 3080 TI FE Video Graphic Card GPU</t>
+          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>rated 3.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3080 TI FE-R</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>rated 3.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
+          <t>Nvidia 3080 Founders Edition</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Uprising Triple Fan 10GB GDDR6 VCG308010TFMPB Video Graphic Card GPU</t>
+          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VCG308010TFMPB-R</t>
+          <t>ROG-LC-3080TI-O12G-GAM-R</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$ 399</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD Rev2.</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
+          <t>RTX3080GamZTrio10LH</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
+          <t>RTX 3080 MASTER 10G LHR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
+          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 1,111</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>VCG308010LTFXPPB</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 1,111</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 596</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS M-10GD (rev. 3.0) (LHR)</t>
+          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 989</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>RTX3080-O10G-NOCTUA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 989</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition</t>
+          <t>3080 Ti SUPRIM X</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ROG-LC-3080TI-O12G-GAM-R</t>
+          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,240</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
+          <t>STX-LC-RTX3080TI-O12SNRFB</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,240</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>GV-N3080VISION OC-10GD REV2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2159,625 +2669,810 @@
       <c r="C103" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RTX3080GamZTrio10LH</t>
+          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RTX 3080 MASTER 10G LHR</t>
+          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 3,427</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VCG308010LTFXPPB</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 1,290</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
+          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$ 596</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
+          <t>TURBO-3080-10G-V2 SR-R</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-NOCTUA</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080-10G6X X-GAMING OC 10GB Graphics Card, GDDR6X 320-bit   PCI Express 4.0 16x Video Card</t>
+          <t>TUF3080O10GV2GAMINGSNRFB</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GeForce RTX 3080-10G6X X-GAMING OC</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX 3080 O10G V2-</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12SNRFB</t>
+          <t>ROG-STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,120</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3080 Ti SUPRIM X</t>
+          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>TUF-3080TI-12G-G-R</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
+          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,399</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O1</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Video Card</t>
+          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMI</t>
+          <t>ROG-3080-10G-GAM-R</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
+          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 3,427</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GV-N3080VISION OC-10GD REV2</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 1,290</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
+          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$ 1,290</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>TURBO-3080-10G-V2 SR-R</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
+          <t>TUF3080O10GV2GAMINGSNRFB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TURBO-3080-10G-V2 SR-R</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TUF3080O10GV2GAMINGSNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>RTX 3080 O10G V2-</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>ROG-STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2787,133 +3482,173 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RTX 3080 O10G V2-</t>
+          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,120</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G</t>
+          <t>TUF-3080TI-12G-G-R</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$ 1,120</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>rated 4.2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
+          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 1,399</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>rated 4.2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TUF-3080TI-12G-G-R</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
+          <t>RTX3080SuprimX10GLHR</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2923,65 +3658,85 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHR</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2991,48 +3746,63 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12G</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$25.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3042,321 +3812,416 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$25.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ROG-3080-10G-GAM-R</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ROG-3080-10G-GAM-R</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
+(LHR)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
-(LHR)</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
+          <t>RTX 3080 SUPRIM X 10G G</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3367,98 +4232,128 @@
       <c r="C174" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G G</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G LHR</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>RTX 3080Ti-12G6X PGF-01</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3469,285 +4364,370 @@
       <c r="C180" t="inlineStr">
         <is>
           <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X PGF-01</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>-RTX3080-O10G-WHITE-V2</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RTX3080 SUPRIM X 10G</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3758,13 +4738,18 @@
       <c r="C197" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3775,30 +4760,40 @@
       <c r="C198" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3809,13 +4804,18 @@
       <c r="C200" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3826,149 +4826,194 @@
       <c r="C201" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
+          <t>3080Ventus3X10GOCSNRFB</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
+          <t>TUF-RTX 3080-GAMING</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3080Ventus3X10GOCSNRFB</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TUF-RTX 3080-GAMING</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3979,285 +5024,370 @@
       <c r="C210" t="inlineStr">
         <is>
           <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4268,319 +5398,414 @@
       <c r="C227" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 794</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>TUF-RTX3080TI-12G-SNRFB</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-SNRFB</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>STRIX-RTX3080-10G-GA</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4590,738 +5815,1024 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080-10G-GA</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>TUF-RTX3080TI-O12G-01</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
           <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
+          <t>RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-01</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 Ultra 10GB GDDR6X 10G-P5-3897-KL Video Graphic Card GPU</t>
+          <t>RTX3080SuprimX10GLHR</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti FTW3 Ultra 12GB GDDR6X 12G-P5-3967-KR Video Graphic Card GPU</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>$ 3,427</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>rated 4.5 out of 5</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Aorus Xtreme Waterforce 10GB GDDR6 GV-N3080AORUSX W-10GD Video Graphic Card GPU</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>GV-N3080AORUSX W-10GD-R</t>
+          <t>STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>rated 4.6 out of 5</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 Ti Aorus Xtreme Waterforce 12GB GDDR6X GV-N308TAORUSX W-12GD Video Graphic Card GPU</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>rated 4.2 out of 5</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>$ 780</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Ti Uprising Epic-X 12GB GDDR6X VCG3080T12TFXMPB Video Graphic Card GPU</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>$ 729</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>VCG3080T12TFXMPB-R</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>$ 729</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$25.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 XLR8 Gaming REVEL EPIC-X 10GB GDDR6X VCG308010TFXPPB Video Graphic Card GPU</t>
+          <t>3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>$ 419</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$25.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>VCG308010TFXPPB-MR</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>$ 419</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>$ 1,059</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti Video Card TUF-RTX3080TI-12G-GAMING</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Special Shipping</t>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-GA</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Special Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti Ventus 3X 12G O</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>RTX 3080Ti-12G6X PGF-01</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti Ventus 3X 12G</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X 01</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>$ 1,159</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>$ 1,190</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>$ 980</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>$ 980</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ZOTAC-RTX3080TI-12G</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ZT-A30800K-10PLHR</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ZOTAC Trinity OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
           <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>$ 1,200</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>STRIX-RTX3080-10G-GA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>$ 779</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>$7.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>TUF-RTX3080TI-O12G-01</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>$ 879</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>$6.00 Shipping</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>rated 4.9 out of 5</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -498,6 +503,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -520,6 +530,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,6 +557,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -564,6 +584,11 @@
           <t>rated 2.7 out of 5</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -586,6 +611,11 @@
           <t>rated 2.7 out of 5</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -608,6 +638,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +665,11 @@
           <t>rated 4.9 out of 5</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -652,6 +692,11 @@
           <t>rated 4.9 out of 5</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,6 +719,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -696,6 +746,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -718,6 +773,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -740,6 +800,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -762,6 +827,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -784,6 +854,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -806,6 +881,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -828,6 +908,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -850,6 +935,11 @@
           <t>rated 4 out of 5</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -872,6 +962,11 @@
           <t>rated 4 out of 5</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -894,6 +989,11 @@
           <t>rated 4 out of 5</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -916,6 +1016,11 @@
           <t>rated 4.4 out of 5</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -938,6 +1043,11 @@
           <t>rated 4.6 out of 5</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -960,6 +1070,11 @@
           <t>rated 4.6 out of 5</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -982,6 +1097,11 @@
           <t>rated 4.6 out of 5</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1004,6 +1124,11 @@
           <t>rated 4.6 out of 5</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1026,6 +1151,11 @@
           <t>rated 4.6 out of 5</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1048,6 +1178,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1070,6 +1205,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1092,6 +1232,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1114,6 +1259,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1136,6 +1286,11 @@
           <t>rated 4.1 out of 5</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1158,6 +1313,11 @@
           <t>rated 4.1 out of 5</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1180,6 +1340,11 @@
           <t>rated 4.1 out of 5</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1202,6 +1367,11 @@
           <t>rated 4.1 out of 5</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1224,6 +1394,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1246,6 +1421,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1268,6 +1448,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1290,6 +1475,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1312,6 +1502,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1334,6 +1529,11 @@
           <t>rated 5 out of 5</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1356,6 +1556,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1378,6 +1583,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1400,6 +1610,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1422,6 +1637,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1444,6 +1664,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1466,6 +1691,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1488,6 +1718,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1510,6 +1745,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1532,6 +1772,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1554,6 +1799,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1576,6 +1826,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1598,6 +1853,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1620,6 +1880,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1642,6 +1907,11 @@
           <t>rated 4.5 out of 5</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1664,6 +1934,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1686,6 +1961,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1708,6 +1988,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1730,6 +2015,11 @@
           <t>rated 4.7 out of 5</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1752,6 +2042,11 @@
           <t>rated 2 out of 5</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1774,6 +2069,11 @@
           <t>rated 2 out of 5</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1796,6 +2096,11 @@
           <t>rated 2 out of 5</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1818,6 +2123,11 @@
           <t>rated 2 out of 5</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1840,6 +2150,11 @@
           <t>rated 4.8 out of 5</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1862,6 +2177,11 @@
           <t>rated 4.8 out of 5</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1884,6 +2204,11 @@
           <t>rated 4.8 out of 5</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1906,16 +2231,21 @@
           <t>rated 4.8 out of 5</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
+          <t>ASUS GeForce RTX 3080 Gundam 10GB GDDR6 ROG-STRIX-RTX3080-O10G-GUNDAM Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 789</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1926,18 +2256,23 @@
       <c r="D69" t="inlineStr">
         <is>
           <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD Rev2.</t>
+          <t>ROG-3080-O10G-GUNDAM-R</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$ 658</t>
+          <t>$ 789</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1948,18 +2283,23 @@
       <c r="D70" t="inlineStr">
         <is>
           <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
+          <t>EVGA GeForce RTX 3080 XC3 BLACK GAMING Video Card, 10G-P5-3881-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, LHR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 663</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1970,18 +2310,23 @@
       <c r="D71" t="inlineStr">
         <is>
           <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
+          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (R. 2.0) LHR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$ 444</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1992,18 +2337,23 @@
       <c r="D72" t="inlineStr">
         <is>
           <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
+          <t>N3080VISION OC-10GD (R. 2.0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2013,19 +2363,24 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080EAGLE OC-10GD G20-R</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2035,19 +2390,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
+          <t>GV-N3080EAGLE OC-10GD G20-R</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$ 549</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2057,19 +2417,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>ASUS GeForce RTX 3080 TI TURBO 12GB GDDR6 TURBO-RTX3080TI-12G Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$ 729</t>
+          <t>$ 549</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2079,19 +2444,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rated 3.9 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>TURBO-3080TI-12G-R</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 549</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2101,19 +2471,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rated 3.9 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
+          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6 3080 TI FE Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 1,399</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2123,19 +2498,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rated 3.9 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
+          <t>3080 TI FE-R</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 1,399</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2145,63 +2525,78 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rated 3.9 out of 5</t>
+          <t>rated 4.8 out of 5</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nvidia 3080 Founders Edition</t>
+          <t>RTX 3080 VENTUS 3X PLUS 10G OC LHR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
+          <t>PNY GeForce RTX 3080 Uprising Triple Fan 10GB GDDR6 VCG308010TFMPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 399</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2211,19 +2606,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ROG-LC-3080TI-O12G-GAM-R</t>
+          <t>VCG308010TFMPB-R</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 399</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2233,19 +2633,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS X-10GD (R. 2.0)- LHR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 658</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2255,19 +2660,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>GV-N3080AORUS M-10GD Rev2.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 658</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2277,19 +2687,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X RGB Triple Fan (REVEL Model) 1710 MHz 19 Gbps 10GB GDDR6X Video Card</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 444</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2299,19 +2714,24 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RTX3080GamZTrio10LH</t>
+          <t>Gaming XLR8 GeForce RTX 3080 10GB EPIC-X</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 444</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2321,19 +2741,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 OC EVA EDITION Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot, Super Alloy Power II, GPU Tweak), LHR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2343,19 +2768,24 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RTX 3080 MASTER 10G LHR</t>
+          <t>ROG-STRIX-RTX3080-O12G-EVA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2365,19 +2795,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
+          <t>PNY GeForce RTX 3080 Uprising Triple Fan LHR 12GB GDDR6 GMR3082N4KCGT3KTM1 Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 549</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2387,19 +2822,24 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>VCG308010LTFXPPB</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$ 1,111</t>
+          <t>$ 1,059</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2409,19 +2849,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 3.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>206</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>MSI RTX 3080 VENTUS 3X PLUS 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2431,19 +2876,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 3.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>206</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX3080VENTUS3XPLUSOC10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2453,19 +2903,24 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 3.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>206</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR) -openbox</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$ 596</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2475,19 +2930,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 3.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>206</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080AORUS M-10GD (rev. 3.0) (LHR)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2497,19 +2957,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-NOCTUA</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$ 989</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2519,19 +2984,24 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>Nvidia 3080 Founders Edition 10GB GDDR6X</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2541,19 +3011,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3080 Ti SUPRIM X</t>
+          <t>Nvidia 3080 Founders Edition</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2563,19 +3038,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>ASUS Geforce RTX 3080 Ti LC OC 12GB GDDR6X ROG-STRIX-LC-RTX3080TI-O12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2586,18 +3066,23 @@
       <c r="D99" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>ROG-LC-3080TI-O12G-GAM-R</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2608,18 +3093,23 @@
       <c r="D100" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12SNRFB</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ROG-STRIX-RTX3080TI-O12G-GAMING)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$ 1,240</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2630,18 +3120,23 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2652,13 +3147,18 @@
       <c r="D102" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GV-N3080VISION OC-10GD REV2</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2674,18 +3174,23 @@
       <c r="D103" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
+          <t>RTX3080GamZTrio10LH</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2696,18 +3201,23 @@
       <c r="D104" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 MASTER 10G LHR Graphics Card, Max Covered Cooling, 10GB 320-bit GDDR6X, GV-N3080AORUS M-10GD (rev. 2.0) Video Card</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2718,18 +3228,23 @@
       <c r="D105" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
+          <t>RTX 3080 MASTER 10G LHR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$ 3,427</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2739,19 +3254,24 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>PNY GeForce RTX 3080 10GB XLR8 Gaming Revel Epic-X RGB Triple Fan Graphics Card LHR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,111</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2761,19 +3281,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>VCG308010LTFXPPB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$ 1,290</t>
+          <t>$ 1,111</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2783,19 +3308,24 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2805,19 +3335,24 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2827,19 +3362,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
+          <t>MSI Ventus GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 VENTUS 3X 10G OC LHR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 596</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2849,19 +3389,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TURBO-3080-10G-V2 SR-R</t>
+          <t>ASUS Noctua Edition GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card,  RTX3080-O10G-NOCTUA(LHR)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 989</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2871,19 +3416,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>RTX3080-O10G-NOCTUA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 989</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2893,63 +3443,78 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TUF3080O10GV2GAMINGSNRFB</t>
+          <t>ZOTAC GeForce RTX 3080-10G6X X-GAMING OC 10GB Graphics Card, GDDR6X 320-bit   PCI Express 4.0 16x Video Card</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>GeForce RTX 3080-10G6X X-GAMING OC</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RTX 3080 O10G V2-</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2959,19 +3524,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.4 out of 5</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2981,19 +3551,24 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.4 out of 5</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G</t>
+          <t>3080 Ti SUPRIM X</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3003,19 +3578,24 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.4 out of 5</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 GAMING Video Card, 12G-P5-3953-KR, 12GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$ 1,120</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3025,19 +3605,24 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
+          <t>ASUS ROG-STRIX-LC-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 1,240</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3047,19 +3632,24 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TUF-3080TI-12G-G-R</t>
+          <t>STX-LC-RTX3080TI-O12SNRFB</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 1,240</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3069,107 +3659,132 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>ROG-STRIX-RTX3080-O1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 4.7 out of 5</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Video Card</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ROG-3080-10G-GAM-R</t>
+          <t>TUF-RTX3080-10G-GAMI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
+          <t>GIGABYTE Vision OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080VISION OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$ 3,427</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3179,19 +3794,24 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>GV-N3080VISION OC-10GD REV2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3201,19 +3821,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
+          <t>GIGABYTE GV-N308TVISION OC-12GD Vision GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$ 1,290</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3223,19 +3848,24 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE-12GD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3245,19 +3875,24 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
+          <t>ZOTAC AMP Extreme Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810B-10P</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$ 995</t>
+          <t>$ 3,427</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3268,18 +3903,23 @@
       <c r="D130" t="inlineStr">
         <is>
           <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3290,18 +3930,23 @@
       <c r="D131" t="inlineStr">
         <is>
           <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TURBO-3080-10G-V2 SR-R</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 Ultra Hybrid Gaming, 12G-P5-3958-KR, 12GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$ 449</t>
+          <t>$ 1,290</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3312,18 +3957,23 @@
       <c r="D132" t="inlineStr">
         <is>
           <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
+          <t>MSI Gaming GeForce RTX 3080 Video Card RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3333,19 +3983,24 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TUF3080O10GV2GAMINGSNRFB</t>
+          <t>RTX 3080 GAMING Z TRIO 12G LHR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 995</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3355,51 +4010,66 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ASUS GeForce RTX 3080 Turbo 10GB GDDR6 TURBO-RTX3080-10G-V2 SR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G</t>
+          <t>TURBO-3080-10G-V2 SR-R</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 449</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3411,139 +4081,169 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RTX 3080 O10G V2-</t>
+          <t>TUF3080O10GV2GAMINGSNRFB</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G</t>
+          <t>RTX 3080 Ti SUPRIM X 12G</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 O10G V2 GAMING Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$ 1,120</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
+          <t>RTX 3080 O10G V2-</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TUF-3080TI-12G-G-R</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3553,19 +4253,24 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>ROG-STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3575,19 +4280,24 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>rated 4.2 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
+          <t>ZOTAC AMP Holo GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card ZT-A30810F-10P</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$ 1,399</t>
+          <t>$ 1,120</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3597,129 +4307,159 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>rated 4.2 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>ASUS GeForce RTX 3080 Ti TUF 12GB GDDR6X TUF-RTX3080TI-12G-GAMING Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHR</t>
+          <t>TUF-3080TI-12G-G-R</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>NVIDIA GeForce RTX 3080 Ti Founders Edition 12GB GDDR6X</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,399</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
+          <t>RTX3080SuprimX10GLHR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12G</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3729,14 +4469,19 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3746,63 +4491,78 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 4.5 out of 5</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>STRIX-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 4.6 out of 5</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3812,333 +4572,408 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 4.2 out of 5</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$25.00 Shipping</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$25.00 Shipping</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 4.9 out of 5</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC LHR Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ROG-3080-10G-GAM-R</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$10.00 Shipping</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>ASUS GeForce RTX 3080 Strix 10GB GDDR6X ROG-STRIX-RTX3080-10G-GAMING Video Graphic Card GPU</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ROG-3080-10G-GAM-R</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>$ 659</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
 (LHR)</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>$ 678</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>rated 5 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>rated 4 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>rated 4 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>$ 799</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>rated 4 out of 5</t>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4148,19 +4983,24 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4171,18 +5011,23 @@
       <c r="D171" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G G</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4193,18 +5038,23 @@
       <c r="D172" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4215,18 +5065,23 @@
       <c r="D173" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM X 10G LHR</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4237,106 +5092,131 @@
       <c r="D174" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>RTX 3080 SUPRIM X 10G G</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X PGF-01</t>
+          <t>RTX 3080 SUPRIM X 10G LHR</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4347,18 +5227,23 @@
       <c r="D179" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
+          <t>RTX 3080 ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4369,150 +5254,185 @@
       <c r="D180" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>RTX 3080Ti-12G6X PGF-01</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4523,18 +5443,23 @@
       <c r="D187" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4545,62 +5470,77 @@
       <c r="D188" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>-RTX3080-O10G-WHITE-V2</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4611,18 +5551,23 @@
       <c r="D191" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4632,19 +5577,24 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RTX3080 SUPRIM X 10G</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4654,19 +5604,24 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 20-Bit GDDR6X ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4676,19 +5631,24 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4698,19 +5658,24 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4720,19 +5685,24 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>RTX3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4742,19 +5712,24 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G-</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4765,18 +5740,23 @@
       <c r="D198" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$ 659</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4787,13 +5767,18 @@
       <c r="D199" t="inlineStr">
         <is>
           <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4808,14 +5793,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
+          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X 384-Bit PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4830,19 +5820,24 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
+          <t>RTX 3080 Ti SUPRIM X 12G-</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4852,19 +5847,24 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 659</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4874,19 +5874,24 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3080Ventus3X10GOCSNRFB</t>
+          <t>ASUS TUF-RTX3080TI-O12G-GAMING TUF Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4897,18 +5902,23 @@
       <c r="D204" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
+          <t>TUF-RTX3080TI-O12G-GSNRFB</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4919,18 +5929,23 @@
       <c r="D205" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TUF-RTX 3080-GAMING</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II)-OPENBOX</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>$ 599</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4941,106 +5956,131 @@
       <c r="D206" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>MSI RTX 3080 VENTUS 3X 10G OC Ventus GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>3080Ventus3X10GOCSNRFB</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 V2 OC Edition Graphics Card (PCIe 4.0, 10GB GDDR6X, LHR, HDMI 2.1, DisplayPort 1.4a, (ASUS TUF-RTX3080-O8G-V2-GAMING)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>TUF-RTX 3080-GAMING</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5051,13 +6091,18 @@
       <c r="D211" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5073,18 +6118,23 @@
       <c r="D212" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5095,106 +6145,131 @@
       <c r="D213" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5205,18 +6280,23 @@
       <c r="D218" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5227,18 +6307,23 @@
       <c r="D219" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5249,18 +6334,23 @@
       <c r="D220" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5271,13 +6361,18 @@
       <c r="D221" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5293,18 +6388,23 @@
       <c r="D222" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5315,18 +6415,23 @@
       <c r="D223" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5337,18 +6442,23 @@
       <c r="D224" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 794</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5359,13 +6469,18 @@
       <c r="D225" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5381,18 +6496,23 @@
       <c r="D226" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5403,18 +6523,23 @@
       <c r="D227" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5425,18 +6550,23 @@
       <c r="D228" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5447,18 +6577,23 @@
       <c r="D229" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5469,18 +6604,23 @@
       <c r="D230" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5491,18 +6631,23 @@
       <c r="D231" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5513,18 +6658,23 @@
       <c r="D232" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5535,62 +6685,77 @@
       <c r="D233" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5601,18 +6766,23 @@
       <c r="D236" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-SNRFB</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5623,18 +6793,23 @@
       <c r="D237" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5645,18 +6820,23 @@
       <c r="D238" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5667,18 +6847,23 @@
       <c r="D239" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5689,18 +6874,23 @@
       <c r="D240" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5711,35 +6901,45 @@
       <c r="D241" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>TUF-RTX3080TI-12G-SNRFB</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5749,156 +6949,191 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080-10G-GA</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-O12G-01</t>
+          <t>STRIX-RTX3080-10G-GA</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti SUPRIM X 12G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5908,19 +7143,24 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RTX 3080 Ti SUPRIM X 12G</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5930,151 +7170,186 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G LHR</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHR</t>
+          <t>TUF-RTX3080TI-O12G-01</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>EVGA GeForce RTX 3080 FTW3 Ultra 10GB GDDR6X 10G-P5-3897-KL Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>EVGA GeForce RTX 3080 Ti FTW3 Ultra 12GB GDDR6X 12G-P5-3967-KR Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>rated 4.5 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, Axial-tech Fan Design, 2.9-Slot, Super Alloy Power II, ASUS Auto-Extreme Technology)</t>
+          <t>GIGABYTE GeForce RTX 3080 Aorus Xtreme Waterforce 10GB GDDR6 GV-N3080AORUSX W-10GD Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12G</t>
+          <t>GV-N3080AORUSX W-10GD-R</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 599</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>rated 4.6 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>GIGABYTE GeForce RTX 3080 Ti Aorus Xtreme Waterforce 12GB GDDR6X GV-N308TAORUSX W-12GD Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6084,327 +7359,402 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>rated 4.2 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KR, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 780</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>PNY GeForce RTX 3080 Ti Uprising Epic-X 12GB GDDR6X VCG3080T12TFXMPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 729</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
+          <t>VCG3080T12TFXMPB-R</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 729</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>3080 Ti Ventus 3X</t>
+          <t>PNY GeForce RTX 3080 XLR8 Gaming REVEL EPIC-X 10GB GDDR6X VCG308010TFXPPB Video Graphic Card GPU</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 419</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>$25.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>VCG308010TFXPPB-MR</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 419</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 12GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O12G-GAMING</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,059</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>$10.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ROG-STRIX-RTX3080-O12G-GAMING11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,059</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti Video Card TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Special Shipping</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 Ti Video Card RTX 3080 Ti Gaming X Trio 12G</t>
+          <t>TUF-RTX3080TI-12G-GA</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Special Shipping</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RTX 3080 ti Gaming X Trio 12G</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X X-GAMING OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX 3080 Ti Ventus 3X 12G O</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X X-GAMING-01</t>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 Video Card RTX 3080 Ti Gaming X Trio 12G</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080Ti-12G6X PGF OC 12GB Graphics Card, GDDR6X 384-bit PCI Express 4.0 Video Card</t>
+          <t>RTX 3080 ti Gaming X Trio</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RTX 3080Ti-12G6X PGF-01</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>RTX 3080 Ti Ventus 3X 12G</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6414,19 +7764,24 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 Ti Ventus 3X 12G OC</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 1,159</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6436,63 +7791,78 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>3080 Ti Ventus 3X 01</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,159</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 XTREME 10G (LHR) Graphics Card, 10GB 320-Bit GDDR6X, PCI Express 4.0, 3×HDMI Interface, 3×DisplayPort Interface</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,190</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>GIGABYTE AORUS RTX 3080 XTREME 10G LHR</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 1,190</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6502,107 +7872,132 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card ROG-STRIX-RTX3080-O10G-GAMING</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 980</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ROG-STRIX-RTX3080-O10G-GAMINGASUS</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 980</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ZOTAC-RTX3080TI-12G</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6612,19 +8007,24 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6634,63 +8034,78 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>ZOTAC Trinity OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KL, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 885</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6700,139 +8115,93 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 885</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-10G-GAMING</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA HYDRO COPPER GAMING, 10G-P5-3889-KR, 10GB GDDR6X, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 1,200</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>rated 4.9 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>STRIX-RTX3080-10G-GA</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>$ 779</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>$7.00 Shipping</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>rated 4.9 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification, GPU Tweak II), TUF-RTX3080TI-O12G</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>$ 879</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>$6.00 Shipping</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>rated 4.9 out of 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>TUF-RTX3080TI-O12G-01</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>$ 879</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>$6.00 Shipping</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>rated 4.9 out of 5</t>
+          <t>rated 2 out of 5</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -4886,12 +4886,13 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
+(LHR)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4901,24 +4902,24 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4928,25 +4929,24 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
-(LHR)</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4968,12 +4968,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4995,12 +4995,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5022,12 +5022,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5049,12 +5049,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5373,12 +5373,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5400,12 +5400,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5427,12 +5427,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5454,12 +5454,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5481,17 +5481,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5508,17 +5508,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5535,17 +5535,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5562,17 +5562,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5589,12 +5589,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5724,12 +5724,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5739,19 +5739,19 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5766,24 +5766,24 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6075,76 +6075,76 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6183,17 +6183,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6203,24 +6203,24 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6230,24 +6230,24 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6264,12 +6264,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6291,7 +6291,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6318,12 +6318,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6345,12 +6345,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6372,12 +6372,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6399,12 +6399,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6426,12 +6426,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6453,12 +6453,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6480,12 +6480,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6507,12 +6507,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6534,7 +6534,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6561,7 +6561,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6588,12 +6588,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6615,12 +6615,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6642,12 +6642,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 794</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6669,7 +6669,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6696,12 +6696,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6723,12 +6723,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6750,12 +6750,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6777,12 +6777,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6804,12 +6804,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6831,17 +6831,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6858,17 +6858,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6966,17 +6966,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6993,17 +6993,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7020,17 +7020,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7047,17 +7047,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7155,7 +7155,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7965,12 +7965,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7992,12 +7992,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ZOTAC-RTX3080TI-12G</t>
+          <t>ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8019,12 +8019,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
+          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8046,12 +8046,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ZT-A30800K-10PLHR</t>
+          <t>ZOTAC-RTX3080TI-12G</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8127,12 +8127,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 885</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rated out of 5</t>
+          <t>Rated out of 5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Number of reviews</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Link of the item</t>
         </is>
       </c>
     </row>
@@ -481,6 +486,11 @@
           <t>86</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +518,11 @@
           <t>86</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +550,11 @@
           <t>86</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -562,6 +582,11 @@
           <t>86</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,6 +614,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -616,6 +646,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,6 +678,11 @@
           <t>50</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -670,6 +710,11 @@
           <t>83</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -697,6 +742,11 @@
           <t>83</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -724,6 +774,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -751,6 +806,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -778,6 +838,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -805,6 +870,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -832,6 +902,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +934,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -886,6 +966,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -913,6 +998,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -940,6 +1030,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -967,6 +1062,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -994,6 +1094,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1021,6 +1126,11 @@
           <t>58</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1048,6 +1158,11 @@
           <t>129</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1075,6 +1190,11 @@
           <t>129</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1102,6 +1222,11 @@
           <t>129</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1129,6 +1254,11 @@
           <t>129</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1156,6 +1286,11 @@
           <t>129</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1183,6 +1318,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1210,6 +1350,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1237,6 +1382,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1264,6 +1414,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1291,6 +1446,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1318,6 +1478,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1345,6 +1510,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1372,6 +1542,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1399,6 +1574,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1426,6 +1606,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1453,6 +1638,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1480,6 +1670,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1507,6 +1702,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1534,6 +1734,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1561,6 +1766,11 @@
           <t>46</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1588,6 +1798,11 @@
           <t>46</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1615,6 +1830,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1642,6 +1862,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1669,6 +1894,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1696,6 +1926,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1723,6 +1958,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1750,6 +1990,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1777,6 +2022,11 @@
           <t>96</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1804,6 +2054,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1831,6 +2086,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1858,6 +2118,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1885,6 +2150,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1912,6 +2182,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1939,6 +2214,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1966,6 +2246,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1993,6 +2278,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2020,6 +2310,11 @@
           <t>106</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2047,6 +2342,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2074,6 +2374,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2101,6 +2406,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2128,6 +2438,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2155,6 +2470,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2182,6 +2502,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2209,6 +2534,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2236,6 +2566,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2263,6 +2598,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2290,6 +2630,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2317,6 +2662,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2344,6 +2694,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2371,6 +2726,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2398,6 +2758,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2425,6 +2790,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2452,6 +2822,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2479,6 +2854,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2506,6 +2886,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2533,6 +2918,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2560,6 +2950,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2587,6 +2982,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2614,6 +3014,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2641,6 +3046,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2668,6 +3078,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2695,6 +3110,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2722,6 +3142,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2749,6 +3174,11 @@
           <t>54</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2776,6 +3206,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2803,6 +3238,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2830,6 +3270,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2857,6 +3302,11 @@
           <t>206</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2884,6 +3334,11 @@
           <t>206</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2911,6 +3366,11 @@
           <t>206</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2938,6 +3398,11 @@
           <t>206</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2965,6 +3430,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2992,6 +3462,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3019,6 +3494,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3046,6 +3526,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3073,6 +3558,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3100,6 +3590,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3127,6 +3622,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3154,6 +3654,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3181,6 +3686,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3208,6 +3718,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3235,6 +3750,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3262,6 +3782,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3289,6 +3814,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3316,6 +3846,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3343,6 +3878,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3370,6 +3910,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3397,6 +3942,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3424,6 +3974,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3451,6 +4006,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3478,6 +4038,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3505,6 +4070,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3532,6 +4102,11 @@
           <t>58</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3559,6 +4134,11 @@
           <t>58</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3586,6 +4166,11 @@
           <t>58</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3613,6 +4198,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3640,6 +4230,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3667,6 +4262,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3694,6 +4294,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3721,6 +4326,11 @@
           <t>112</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3748,6 +4358,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3775,6 +4390,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3802,6 +4422,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3829,6 +4454,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3856,6 +4486,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3883,6 +4518,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3910,6 +4550,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3937,6 +4582,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3964,6 +4614,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3991,6 +4646,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4018,6 +4678,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4045,6 +4710,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4072,6 +4742,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4099,6 +4774,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4126,6 +4806,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4153,6 +4838,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4180,6 +4870,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4207,6 +4902,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4234,6 +4934,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4261,6 +4966,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4288,6 +4998,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4315,6 +5030,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4342,6 +5062,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4369,6 +5094,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4396,6 +5126,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4423,6 +5158,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4450,6 +5190,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4477,6 +5222,11 @@
           <t>173</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4504,6 +5254,11 @@
           <t>173</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4531,6 +5286,11 @@
           <t>89</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4558,6 +5318,11 @@
           <t>89</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4585,6 +5350,11 @@
           <t>68</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4612,6 +5382,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4639,6 +5414,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4666,6 +5446,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4693,6 +5478,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4720,6 +5510,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4747,6 +5542,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4774,6 +5574,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4801,6 +5606,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4828,6 +5638,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4855,6 +5670,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4882,98 +5702,118 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
 (LHR)</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>$ 678</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>rated 5 out of 5</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>rated 4 out of 5</t>
-        </is>
-      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4983,24 +5823,29 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5016,18 +5861,23 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5043,18 +5893,23 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5070,18 +5925,23 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5097,6 +5957,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -5126,6 +5991,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5153,6 +6023,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5180,6 +6055,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5207,6 +6087,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5234,6 +6119,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5261,6 +6151,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5288,6 +6183,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5315,6 +6215,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5342,6 +6247,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5369,16 +6279,21 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5394,18 +6309,23 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5421,18 +6341,23 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5448,18 +6373,23 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5475,23 +6405,28 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5502,23 +6437,28 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5529,23 +6469,28 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5556,23 +6501,28 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5583,18 +6533,23 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5610,6 +6565,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -5639,6 +6599,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5666,6 +6631,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5693,6 +6663,11 @@
           <t>39</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5720,16 +6695,21 @@
           <t>39</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5739,19 +6719,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5766,24 +6751,29 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>rated 4.3 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5799,6 +6789,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -5828,6 +6823,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5855,6 +6855,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5882,6 +6887,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5909,6 +6919,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5936,6 +6951,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5963,6 +6983,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5990,6 +7015,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6017,6 +7047,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6044,6 +7079,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6071,92 +7111,112 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6171,29 +7231,34 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 2 out of 5</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6203,24 +7268,29 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6230,24 +7300,29 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6258,18 +7333,23 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6285,13 +7365,18 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6312,18 +7397,23 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6339,18 +7429,23 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6366,18 +7461,23 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6393,18 +7493,23 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6420,18 +7525,23 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6447,18 +7557,23 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 794</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6474,18 +7589,23 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6501,18 +7621,23 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6528,13 +7653,18 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6555,13 +7685,18 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6582,18 +7717,23 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6609,18 +7749,23 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6636,18 +7781,23 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6663,13 +7813,18 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6690,18 +7845,23 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6717,18 +7877,23 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6744,18 +7909,23 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6771,18 +7941,23 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6798,18 +7973,23 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6825,23 +8005,28 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6852,23 +8037,28 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6879,6 +8069,11 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -6908,6 +8103,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6935,6 +8135,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6962,21 +8167,26 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6987,23 +8197,28 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7014,23 +8229,28 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7041,23 +8261,28 @@
       <c r="E246" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7068,6 +8293,11 @@
       <c r="E247" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -7097,6 +8327,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7124,11 +8359,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7138,7 +8378,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7149,13 +8389,18 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7165,7 +8410,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7176,6 +8421,11 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>
@@ -7205,6 +8455,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7232,6 +8487,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7259,6 +8519,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7286,6 +8551,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7313,6 +8583,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7340,6 +8615,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7367,6 +8647,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7394,6 +8679,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7421,6 +8711,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7448,6 +8743,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7475,6 +8775,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7502,6 +8807,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7529,6 +8839,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7556,6 +8871,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7583,6 +8903,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7610,6 +8935,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7637,6 +8967,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7664,6 +8999,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7691,6 +9031,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7718,6 +9063,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7745,6 +9095,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7772,6 +9127,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7799,6 +9159,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7826,6 +9191,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7853,6 +9223,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7880,6 +9255,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7907,6 +9287,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7934,6 +9319,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7961,6 +9351,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7988,6 +9383,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8015,6 +9415,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8042,6 +9447,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8069,6 +9479,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8096,6 +9511,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8123,6 +9543,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8150,6 +9575,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8177,6 +9607,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8202,6 +9637,11 @@
       <c r="E289" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/pl?d=3080</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -9360,12 +9360,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
+          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9392,12 +9392,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ZT-A30800K-10PLHR</t>
+          <t>ZOTAC-RTX3080TI-12G</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 1,095</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9424,12 +9424,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce RTX 3080 Ti 12GB GDDR6X Trinity OC PCI Express 4.0 ATX Video Card ZT-A30810J-10P</t>
+          <t>ZOTAC GAMING GeForce RTX 3080 Trinity OC White Edition LHR 10GB GDDR6X PCI Express 4.0 ATX Video Card ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9456,12 +9456,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ZOTAC-RTX3080TI-12G</t>
+          <t>ZT-A30800K-10PLHR</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>$ 1,095</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Link of the item</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,7 +493,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080gaming-oc-10gd/p/N82E16814932459</t>
         </is>
       </c>
     </row>
@@ -520,7 +525,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080gaming-oc-10gd/p/N82E16814932459</t>
         </is>
       </c>
     </row>
@@ -552,7 +557,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-008J7</t>
         </is>
       </c>
     </row>
@@ -584,7 +589,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-008J7</t>
         </is>
       </c>
     </row>
@@ -616,7 +621,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/avgpc-blizzard-3090/p/3D5-002N-00046?Item=9SIB5FPJV66729&amp;cm_sp=SP-_-2574594-_-0-_-0-_-9SIB5FPJV66729-_-3080-_-3080-_-3</t>
         </is>
       </c>
     </row>
@@ -648,7 +653,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/avgpc-blizzard-3090/p/3D5-002N-00046?Item=9SIB5FPJV66729&amp;cm_sp=SP-_-2574594-_-0-_-0-_-9SIB5FPJV66729-_-3080-_-3080-_-3</t>
         </is>
       </c>
     </row>
@@ -680,7 +685,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-12g-p5-4877-kl/p/N82E16814487553</t>
         </is>
       </c>
     </row>
@@ -712,7 +717,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/N82E16814932460</t>
         </is>
       </c>
     </row>
@@ -744,7 +749,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/N82E16814932460</t>
         </is>
       </c>
     </row>
@@ -776,7 +781,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3897-kl/p/1FT-001K-00DF8</t>
         </is>
       </c>
     </row>
@@ -808,7 +813,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/biostar-geforce-rtx-3080/p/1FT-003G-00013</t>
         </is>
       </c>
     </row>
@@ -840,7 +845,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ3</t>
         </is>
       </c>
     </row>
@@ -872,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ3</t>
         </is>
       </c>
     </row>
@@ -904,7 +909,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/avgpc-quiet-3080/p/3D5-002N-00042?Item=9SIB5FPJUR1825&amp;cm_sp=SP-_-2574594-_-0-_-0-_-9SIB5FPJUR1825-_-3080-_-3080-_-9</t>
         </is>
       </c>
     </row>
@@ -936,7 +941,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/avgpc-quiet-3080/p/3D5-002N-00042?Item=9SIB5FPJUR1825&amp;cm_sp=SP-_-2574594-_-0-_-0-_-9SIB5FPJUR1825-_-3080-_-3080-_-9</t>
         </is>
       </c>
     </row>
@@ -968,7 +973,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/1FT-0009-009J7</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1005,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/1FT-0009-009J7</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1037,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/biostar-geforce-rtx-3080/p/1FT-003G-00012</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1069,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003S5</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003S5</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1133,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3885-kr/p/N82E16814487520</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1165,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-o12g-gaming/p/N82E16814126509</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1197,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-o12g-gaming/p/N82E16814126509</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1229,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-ti-12g-p5-3955-kr/p/1FT-001K-00FS7</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1261,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003T2</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1293,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3885-kl/p/1FT-001K-00FM3</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1325,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00981</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1357,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00981</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1389,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/N82E16814137816</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1421,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/N82E16814137816</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1453,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-geforce-rtx-3080-zt-t30800j-10p/p/N82E16814500504</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1485,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-geforce-rtx-3080-zt-t30800j-10p/p/N82E16814500504</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1517,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-006K4</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1549,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-006K4</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1581,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-10g-gaming/p/N82E16814126469</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1613,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-10g-gaming/p/N82E16814126469</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080-ti-fe/p/N82E16814132094</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1677,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080-ti-fe/p/N82E16814132094</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1709,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080/p/1FT-000A-005S9</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1741,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080/p/1FT-000A-005S9</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1773,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rtx3080-o10g-wht-v2/p/N82E16814126533</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1805,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rtx3080-o10g-wht-v2/p/N82E16814126533</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1837,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-z-trio-10g-lhr/p/N82E16814137677</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1869,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-z-trio-10g-lhr/p/N82E16814137677</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00956</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1933,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00956</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1965,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008Y3</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1997,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008Y3</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2029,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-004X3</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2061,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-x-trio-10g/p/N82E16814137597</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2093,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-x-trio-10g/p/N82E16814137597</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2125,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007N0</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2157,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-x-trio-10g/p/1FT-0009-00AR3</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2189,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-x-trio-10g/p/1FT-0009-00AR3</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2221,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/N82E16814126525</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2253,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/N82E16814126525</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2285,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007N9</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2317,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007N9</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2349,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080/p/1FT-0004-007R8</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2381,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080/p/1FT-0004-007R8</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2413,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-008U8</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2445,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-008U8</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2477,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/N82E16814137651</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2509,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/N82E16814137651</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2541,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-008J5</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2573,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-008J5</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2605,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-00937</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2637,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-00937</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2669,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3881-kl/p/1FT-001K-00FG4</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2701,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/1FT-000A-005V3</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2733,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/1FT-000A-005V3</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2765,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080eagle-oc-10gd-g20-r/p/N82E16814932655</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2797,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080eagle-oc-10gd-g20-r/p/N82E16814932655</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2829,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-turbo-video-cards-nvidia-geforce-rtx-3080-ti-12gb-gddr6/p/1FT-000Y-00B28</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2861,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-turbo-video-cards-nvidia-geforce-rtx-3080-ti-12gb-gddr6/p/1FT-000Y-00B28</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2893,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080-ti/p/1FT-0004-007S0</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2925,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/nvidia-geforce-rtx-3080-ti/p/1FT-0004-007S0</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2957,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/N82E16814137686</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2989,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/N82E16814137686</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3021,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-00641</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3053,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-00641</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3085,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-x-10gd/p/1FT-000A-005V2</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3117,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-x-10gd/p/1FT-000A-005V2</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3149,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-005Y2</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3181,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-005Y2</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3213,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o12g-eva/p/N82E16814126580</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3245,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o12g-eva/p/N82E16814126580</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3277,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/pny-geforce-rtx-3080/p/1FT-000P-005V5</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3309,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/N82E16814932436</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3341,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/1FT-0009-009B2</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3373,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-plus-10g-oc-lhr/p/1FT-0009-009B2</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3405,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007R8</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3437,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-m-10gd/p/N82E16814932458</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3469,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-m-10gd/p/N82E16814932458</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3501,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-007N9</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3533,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-007N9</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3565,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti/p/1FT-000Y-008H1</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3597,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti/p/1FT-000Y-008H1</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3629,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/1FT-000Y-008G2</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3661,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/1FT-000Y-008G2</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3693,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BF6</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3725,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BF6</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3757,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-m-10gd/p/1FT-000A-005V8</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3789,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-m-10gd/p/1FT-000A-005V8</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3821,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-004E8</t>
         </is>
       </c>
     </row>
@@ -3848,14 +3853,14 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-004E8</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3880,14 +3885,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/N82E16814932539</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3912,7 +3917,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-004W8</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3949,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-10g-oc-lhr/p/N82E16814137678</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3981,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rtx3080-o10g-noctua/p/1FT-000Y-008D9</t>
         </is>
       </c>
     </row>
@@ -4008,7 +4013,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rtx3080-o10g-noctua/p/1FT-000Y-008D9</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4045,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003S6</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4077,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003S6</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4109,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/N82E16814932435</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4141,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BN1</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4173,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BN1</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4205,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-ti-12g-p5-3953-kr/p/N82E16814487549</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4237,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-lc-rtx3080ti-o12g-gaming/p/1FT-000Y-007G2</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4269,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-lc-rtx3080ti-o12g-gaming/p/1FT-000Y-007G2</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4301,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-gaming/p/N82E16814126457</t>
         </is>
       </c>
     </row>
@@ -4328,7 +4333,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-gaming/p/N82E16814126457</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4365,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-10g-gaming/p/N82E16814126453</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4397,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-10g-gaming/p/N82E16814126453</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4429,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/1FT-000A-006D1</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4461,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080vision-oc-10gd/p/1FT-000A-006D1</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4493,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tvision-oc-12gd/p/1FT-000A-004N5</t>
         </is>
       </c>
     </row>
@@ -4520,7 +4525,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-005Z7</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4557,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-geforce-rtx-3080-ti-zt-a30810b-10p/p/N82E16814500527</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4589,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-suprim-x-12g/p/1FT-0009-009S9</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4621,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-001K-00DW1</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4653,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-z-trio-12g-lhr/p/1FT-0009-00BT4</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4685,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-gaming-z-trio-12g-lhr/p/1FT-0009-00BT4</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4717,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-008M6</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4749,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-008M6</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4781,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/1FT-000Y-007P6</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4813,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/1FT-000Y-007P6</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4845,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-suprim-x-12g/p/N82E16814137660</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4877,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-suprim-x-12g/p/N82E16814137660</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4909,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00955</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4941,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00955</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4973,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008S2</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5005,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008S2</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5037,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-zt-a30810f-10p/p/N82E16814500515</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5069,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti/p/1FT-000Y-00983</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5101,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti/p/1FT-000Y-00983</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5133,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0004-006W2</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5165,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/N82E16814137676</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5197,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/N82E16814137676</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5229,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-gaming-x-trio-12g/p/N82E16814137650</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5261,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-gaming-x-trio-12g/p/N82E16814137650</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5293,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/N82E16814126508</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5325,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/N82E16814126508</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5357,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tvision-oc-12gd/p/N82E16814932437</t>
         </is>
       </c>
     </row>
@@ -5384,7 +5389,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-white/p/N82E16814126483</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5421,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-white/p/N82E16814126483</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5453,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00B95</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5485,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00B95</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5517,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-10g-oc-lhr/p/1FT-0009-009A1</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5549,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-10g/p/N82E16814137634</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5581,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-10g/p/N82E16814137634</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5613,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00957</t>
         </is>
       </c>
     </row>
@@ -5640,7 +5645,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-00957</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5677,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-00984</t>
         </is>
       </c>
     </row>
@@ -5704,19 +5709,20 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080/p/1FT-000Y-00984</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
+(LHR)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5726,29 +5732,29 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AS8</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5758,30 +5764,29 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>rated 3.3 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AS8</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
-(LHR)</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5791,7 +5796,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5801,19 +5806,19 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5823,7 +5828,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>rated 5 out of 5</t>
+          <t>rated 4 out of 5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5833,19 +5838,19 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5865,19 +5870,19 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5897,19 +5902,19 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5929,19 +5934,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 649</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5961,7 +5966,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5998,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BJ5</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6030,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BJ5</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6062,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AK3</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6094,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AK3</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6126,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-gaming-x-trio-12g/p/1FT-0009-00B99</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6158,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-gaming-x-trio-12g/p/1FT-0009-00B99</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6190,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003R6</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003R6</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6254,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003R7</t>
         </is>
       </c>
     </row>
@@ -6281,19 +6286,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003R7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6313,19 +6318,19 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6345,19 +6350,19 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6377,19 +6382,19 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6409,24 +6414,24 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6441,24 +6446,24 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6473,24 +6478,24 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6505,24 +6510,24 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6537,19 +6542,19 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6569,7 +6574,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/1FT-000A-006D3</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6606,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008K4</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6638,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008K4</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6670,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx3080-suprim-x-10g/p/N82E16814137609</t>
         </is>
       </c>
     </row>
@@ -6697,19 +6702,19 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx3080-suprim-x-10g/p/N82E16814137609</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
+          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6719,24 +6724,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-009Z2</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti Ventus 3X 12G OC Ventus GeForce RTX 3080 Ti Video Card</t>
+          <t>3080tiVentus3X12GOCSNRFB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6751,29 +6756,29 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 4.3 out of 5</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-009Z2</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3080tiVentus3X12GOCSNRFB</t>
+          <t>EVGA GeForce RTX 3080 XC3 ULTRA GAMING Video Card, 10G-P5-3885-KR, 10GB GDDR6X, iCX3 Cooling, ARGB LED, Metal Backplate</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6793,7 +6798,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3885-kr/p/1FT-001K-00FF2</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6830,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-suprim-x-12g/p/1FT-0009-00AT9</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6862,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-suprim-x-12g/p/1FT-0009-00AT9</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6894,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3897-kr/p/1FT-001K-00FE3</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6926,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-o12g-gaming/p/1FT-000Y-007W3</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6958,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-o12g-gaming/p/1FT-000Y-007W3</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6990,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-006M5</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7022,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-10g-oc/p/1FT-0009-009C2</t>
         </is>
       </c>
     </row>
@@ -7049,7 +7054,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-ventus-3x-10g-oc/p/1FT-0009-009C2</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7086,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/1FT-000Y-008J4</t>
         </is>
       </c>
     </row>
@@ -7113,93 +7118,93 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-tuf-rtx3080-o10g-v2-gaming/p/1FT-000Y-008J4</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
+          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ8</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2SNRFB</t>
+          <t>RTX 3080 SUPRIM 10G</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ8</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$20.00 Shipping</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7209,14 +7214,14 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ7</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM 10G</t>
+          <t>3080GamingXTrio10G</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7231,7 +7236,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>rated 2 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7241,24 +7246,24 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ7</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RTX 3080 SUPRIM 10G</t>
+          <t>GIGABYTE GV-N308TGAMING OC-12GD Gaming GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7273,24 +7278,24 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/1FT-000A-00528</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2 (LHR)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7300,29 +7305,29 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-white-v2/p/1FT-000Y-007R3</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3080GamingXTrio10G</t>
+          <t>RTX3080-O10G-WHT-V2SNRFB</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>$20.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7332,24 +7337,24 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-white-v2/p/1FT-000Y-007R3</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
+          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>$ 899</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7364,19 +7369,19 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-suprim-x-12g/p/1FT-0009-009R5</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 Ti SUPRIM X 12G Suprim GeForce RTX 3080 Ti Video Card</t>
+          <t>RTX3080TiSUPRIMX12GSNRFB</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7396,24 +7401,24 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-suprim-x-12g/p/1FT-0009-009R5</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RTX3080TiSUPRIMX12GSNRFB</t>
+          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7428,24 +7433,24 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx-3080-ventus-3x-10g/p/13B-04X9-000B3</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
+          <t>RTX-3080-VENTUS-3X-10G</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 1,137</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7460,24 +7465,24 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-rtx-3080-ventus-3x-10g/p/13B-04X9-000B3</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 TUF-RTX3080-10G-GAMING Graphics Card with hub (Refurbished)</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>$ 639</t>
+          <t>$ 899</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7492,24 +7497,24 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009N7</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7524,24 +7529,24 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/1FT-000A-004U5</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>TUF-RTX3080-10G-GAMING-REF</t>
+          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>$ 638</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7556,24 +7561,24 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-003J2</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
+          <t>GV-N3080AORUS M-10GD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>$ 794</t>
+          <t>$ 749</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7588,24 +7593,24 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-003J2</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE GeForce RTX 3080 VISION OC 10GB Video Card, GV-N3080VISION OC-10GD (REV2.0)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7620,24 +7625,24 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-004W0</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
+          <t>GV-N3080VISIONOC-10GDREV2SNRFB</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>$ 779</t>
+          <t>$ 639</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7652,19 +7657,19 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-004W0</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7684,19 +7689,19 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/1FT-000Y-007G6</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ASUS ROG-STRIX-RTX3080TI-O12G-GAMING ROG STRIX GeForce RTX 3080 Ti Video Card</t>
+          <t>STRIX-RTX3080TI-O12GSNRFB</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7716,19 +7721,19 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-rtx3080ti-o12g-gaming/p/1FT-000Y-007G6</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>STRIX-RTX3080TI-O12GSNRFB</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7748,24 +7753,24 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/1FT-000A-00457</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
+          <t>GIGABYTE VISION OC GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TVISION OC-12GD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 779</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7780,24 +7785,24 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-005Z8</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
+          <t>GIGABYTE Eagle GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TEAGLE OC-12GD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>$ 769</t>
+          <t>$ 794</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7812,19 +7817,19 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308teagle-oc-12gd/p/1FT-000A-005S3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RTX3080-O10G-WHT-V2</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 x16 ATX Video Card ROG-STRIX-RTX3080-O10G-WHITE-V2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7844,24 +7849,24 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008R2</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 VENTUS 3X 10G 10GB GDDR6X Graphics Card - Black</t>
+          <t>RTX3080-O10G-WHT-V2</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 769</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7876,24 +7881,24 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008R2</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RTX-3080-VENTUS-3X-10G</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>$ 1,137</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7908,24 +7913,24 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/1FT-000A-005P9</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GIGABYTE 3080 Graphics card AORUS GIGABYTE GeForce RTX 3080 MASTER 10GB PCI Express 4.0 ATX Video Card (rev. 3.0) GV-N3080AORUS M-10GD (LHR)</t>
+          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7940,29 +7945,29 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009A6</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>GV-N3080AORUS M-10GD</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>$ 749</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7972,29 +7977,29 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009D8</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>STRIXRTX3080O10G-WHT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 879</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.50 Shipping</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8004,24 +8009,24 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009D8</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 739</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8036,19 +8041,19 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007P8</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming GeForce RTX 3080 Ti OC Edition Graphics Card(PCIe 4.0,12GB GDDR6X,HDMI 2.1,DisplayPort 1.4a,Dual Ball Fan Bearings,Military-grade Certification),TUF-RTX3080TI-O12G-GAMING</t>
+          <t>TUF-RTX3080TI-12G-SNRFB</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8068,24 +8073,24 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-007P8</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-grade Certification), TUF-RTX3080TI-12G-GAMING</t>
+          <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Graphics Card (PCIe 4.0, 10GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8100,24 +8105,24 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008F8</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TUF-RTX3080TI-12G-SNRFB</t>
+          <t>TUF-RTX3080-10G-GAMING-REF</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>$ 739</t>
+          <t>$ 638</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8132,12 +8137,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-008F8</t>
         </is>
       </c>
     </row>
@@ -8164,29 +8169,29 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-00600</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix NVIDIA GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1) ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8196,29 +8201,29 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009G2</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-G</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>$ 999</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$6.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8228,29 +8233,29 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009G2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 Video Card ROG-STRIX-RTX3080-O10G-WHITE</t>
+          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8260,29 +8265,29 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-lc-rtx3080ti-o12g-gaming/p/1FT-000Y-009C9</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>STRIXRTX3080O10G-WHT</t>
+          <t>STX-LC-RTX3080TI-O12</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>$ 879</t>
+          <t>$ 999</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$7.50 Shipping</t>
+          <t>$15.00 Shipping</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8292,12 +8297,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-rog-strix-lc-rtx3080ti-o12g-gaming/p/1FT-000Y-009C9</t>
         </is>
       </c>
     </row>
@@ -8324,12 +8329,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-10g-gaming/p/1FT-000Y-009D9</t>
         </is>
       </c>
     </row>
@@ -8356,19 +8361,19 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-10g-gaming/p/1FT-000Y-009D9</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ASUS ROG STRIX GeForce RTX 3080 Ti Video Card ROG-STRIX-LC-RTX3080TI-O12G-GAMING</t>
+          <t>ASUS ROG Strix GeForce RTX 3080 Ti OC Edition Gaming Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.9-slot), ROG-STRIX-RTX3080TI-O12G-GAMING</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8378,7 +8383,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8388,19 +8393,19 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009E2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STX-LC-RTX3080TI-O12</t>
+          <t>ROG-STRIX-RTX3080TI-O12G-00</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8410,7 +8415,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$15.00 Shipping</t>
+          <t>$6.00 Shipping</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8420,12 +8425,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009E2</t>
         </is>
       </c>
     </row>
@@ -8452,12 +8457,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009E1</t>
         </is>
       </c>
     </row>
@@ -8484,12 +8489,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009E1</t>
         </is>
       </c>
     </row>
@@ -8516,12 +8521,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080/p/1FT-001K-00FH4</t>
         </is>
       </c>
     </row>
@@ -8548,12 +8553,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-ti/p/1FT-001K-00FH8</t>
         </is>
       </c>
     </row>
@@ -8580,12 +8585,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-007P2</t>
         </is>
       </c>
     </row>
@@ -8612,12 +8617,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-007P2</t>
         </is>
       </c>
     </row>
@@ -8644,12 +8649,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000A-007N7</t>
         </is>
       </c>
     </row>
@@ -8676,12 +8681,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3897-kr/p/1FT-001K-00FS8</t>
         </is>
       </c>
     </row>
@@ -8708,12 +8713,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-00630</t>
         </is>
       </c>
     </row>
@@ -8740,12 +8745,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000P-00630</t>
         </is>
       </c>
     </row>
@@ -8772,12 +8777,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/pny-rtx-3080/p/1FT-000P-004C1</t>
         </is>
       </c>
     </row>
@@ -8804,12 +8809,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/pny-rtx-3080/p/1FT-000P-004C1</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8841,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009R0</t>
         </is>
       </c>
     </row>
@@ -8868,12 +8873,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000Y-009R0</t>
         </is>
       </c>
     </row>
@@ -8900,12 +8905,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-12g-gaming/p/1FT-000Y-009A5</t>
         </is>
       </c>
     </row>
@@ -8932,12 +8937,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-ti-tuf-rtx3080ti-12g-gaming/p/1FT-000Y-009A5</t>
         </is>
       </c>
     </row>
@@ -8964,12 +8969,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00BJ3</t>
         </is>
       </c>
     </row>
@@ -8996,12 +9001,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00BJ3</t>
         </is>
       </c>
     </row>
@@ -9028,12 +9033,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ2</t>
         </is>
       </c>
     </row>
@@ -9060,12 +9065,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ2</t>
         </is>
       </c>
     </row>
@@ -9092,12 +9097,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ4</t>
         </is>
       </c>
     </row>
@@ -9124,12 +9129,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00AZ4</t>
         </is>
       </c>
     </row>
@@ -9156,12 +9161,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BN2</t>
         </is>
       </c>
     </row>
@@ -9188,12 +9193,12 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BN2</t>
         </is>
       </c>
     </row>
@@ -9220,12 +9225,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-x-10gd/p/1FT-000A-006T5</t>
         </is>
       </c>
     </row>
@@ -9252,12 +9257,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-gv-n3080aorus-x-10gd/p/1FT-000A-006T5</t>
         </is>
       </c>
     </row>
@@ -9284,12 +9289,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308teagle-oc-12gd/p/1FT-000A-006F8</t>
         </is>
       </c>
     </row>
@@ -9316,12 +9321,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-gaming/p/1FT-000Y-00898</t>
         </is>
       </c>
     </row>
@@ -9348,12 +9353,12 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-rog-strix-rtx3080-o10g-gaming/p/1FT-000Y-00898</t>
         </is>
       </c>
     </row>
@@ -9380,12 +9385,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-model-3080ti/p/1DW-000S-000G0</t>
         </is>
       </c>
     </row>
@@ -9412,12 +9417,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/zotac-model-3080ti/p/1DW-000S-000G0</t>
         </is>
       </c>
     </row>
@@ -9444,12 +9449,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003U5</t>
         </is>
       </c>
     </row>
@@ -9476,12 +9481,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003U5</t>
         </is>
       </c>
     </row>
@@ -9508,12 +9513,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-000M-003T0</t>
         </is>
       </c>
     </row>
@@ -9540,12 +9545,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-geforce-rtx-3080-10g-p5-3885-kl/p/1FT-001K-00DF1</t>
         </is>
       </c>
     </row>
@@ -9572,12 +9577,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-12g-p5-3955-kr/p/1FT-001K-00DY1</t>
         </is>
       </c>
     </row>
@@ -9604,12 +9609,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/evga-10g-p5-3897-kl/p/1FT-001K-00DF7</t>
         </is>
       </c>
     </row>
@@ -9636,12 +9641,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/pl?d=3080</t>
+          <t>https://www.newegg.com/p/1FT-001K-00FU6</t>
         </is>
       </c>
     </row>

--- a/3080.xlsx
+++ b/3080.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Link of the item</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3860,7 +3855,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3885,14 +3880,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/N82E16814932539</t>
+          <t>https://www.newegg.com/p/1FT-000A-004W8</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 x16 ATX Video Card GV-N308TAORUS M-12GD</t>
+          <t>GIGABYTE AORUS GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card GV-N308TAORUS M-12GD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3917,7 +3912,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-000A-004W8</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308taorus-m-12gd/p/N82E16814932539</t>
         </is>
       </c>
     </row>
@@ -5716,109 +5711,109 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>$ 649</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>rated 3.3 out of 5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>MSI Suprim GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 SUPRIM X 10G 
 (LHR)</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>$ 678</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Free Shipping</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>rated 5 out of 5</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AS8</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>--RTX 3080 SUPRIM X 10G</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>$ 678</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>rated 5 out of 5</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AS8</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>$ 619</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Free Shipping</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>rated 4 out of 5</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING Z TRIO 10G L</t>
+          <t>--RTX 3080 SUPRIM X 10G</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5828,7 +5823,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>rated 4 out of 5</t>
+          <t>rated 5 out of 5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5838,19 +5833,19 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-00AS8</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card RTX 3080 GAMING Z TRIO 10G LHR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5870,19 +5865,19 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
+          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>-RTX 3080 Ti Ventus 3X</t>
+          <t>RTX 3080 GAMING Z TRIO 10G L</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$ 799</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5902,19 +5897,19 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
+          <t>https://www.newegg.com/p/1FT-0009-008V8</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ASUS ROG Strix GeForce RTX 3080 V2 OC Edition 10GB GDDR6X PCI Express 4.0 x16 Video Card ROG-STRIX-RTX3080-O10G-V2-GAMING (LHR)</t>
+          <t>MSI Ventus GeForce RTX 3080 Ti 12GB GDDR6X PCI Express 4.0 ATX Video Card -RTX 3080 Ti Ventus 3X 12G OC--</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5934,19 +5929,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>-RTX 3080 Ti Ventus 3X</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$ 649</t>
+          <t>$ 799</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5966,7 +5961,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/asus-geforce-rtx-3080-strix-rtx3080-o10g-v2-gaming/p/1FT-000Y-00971</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-ti-rtx-3080-ti-ventus-3x-12g-oc/p/1FT-0009-00AW2</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6288,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
+          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6318,19 +6313,19 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RTX 3080 GAMING X TRIO 10</t>
+          <t>RTX3080SuprimX10GLHRSNRFB</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$ 619</t>
+          <t>$ 678</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6350,19 +6345,19 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
+          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MSI RTX 3080 SUPRIM X 10G LHR Suprim GeForce RTX 3080 Video Card</t>
+          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6382,19 +6377,19 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
+          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RTX3080SuprimX10GLHRSNRFB</t>
+          <t>GV-N3080GAMING OC-10GD REV</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$ 678</t>
+          <t>$ 679</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6414,24 +6409,24 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-geforce-rtx-3080-rtx-3080-suprim-x-10g-lhr/p/1FT-0009-009K4</t>
+          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming OC GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 ATX Video Card GV-N3080GAMING OC-10GD (rev. 2.0) (LHR)</t>
+          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6446,24 +6441,24 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
+          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GV-N3080GAMING OC-10GD REV</t>
+          <t>RTX3080SUPRIMX10GLHR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$ 679</t>
+          <t>$ 699</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Free Shipping</t>
+          <t>$7.00 Shipping</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6478,24 +6473,24 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/p/1FT-000A-006E0</t>
+          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MSI GeForce RTX 3080 Suprim X 10G LHR 10GB GDRR6X 320-Bit HDMI/DP Graphics Card</t>
+          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 959</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6510,24 +6505,24 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
+          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/1FT-000A-006D3</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RTX3080SUPRIMX10GLHR</t>
+          <t>MSI Gaming GeForce RTX 3080 10GB GDDR6X PCI Express 4.0 Video Card RTX 3080 GAMING X TRIO 10G</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$ 699</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>$7.00 Shipping</t>
+          <t>Free Shipping</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6542,19 +6537,19 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/msi-rtx3080suprimx10glhr/p/1FT-0009-006M1</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GIGABYTE Gaming GeForce RTX 3080 Ti Video Card GV-N308TGAMING OC-12GD</t>
+          <t>RTX 3080 GAMING X TRIO 10</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$ 959</t>
+          <t>$ 619</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6574,7 +6569,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/gigabyte-geforce-rtx-3080-ti-gv-n308tgaming-oc-12gd/p/1FT-000A-006D3</t>
+          <t>https://www.newegg.com/p/1FT-0009-00BH5</t>
         </is>
       </c>
     </row>
@@ -9557,12 +9552,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
+          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>$ 1,099</t>
+          <t>$ 885</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9582,19 +9577,19 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/evga-12g-p5-3955-kr/p/1FT-001K-00DY1</t>
+          <t>https://www.newegg.com/evga-10g-p5-3897-kl/p/1FT-001K-00DF7</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3080 FTW3 ULTRA GAMING Video Card, 10G-P5-3897-KL, 10GB GDDR6X, iCX3 Technology, ARGB LED, Metal Backplate, LHR</t>
+          <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA 12GB GDDR6X LHR Graphics Card 12G-P5-3955-KR</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>$ 885</t>
+          <t>$ 1,099</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9614,7 +9609,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://www.newegg.com/evga-10g-p5-3897-kl/p/1FT-001K-00DF7</t>
+          <t>https://www.newegg.com/evga-12g-p5-3955-kr/p/1FT-001K-00DY1</t>
         </is>
       </c>
     </row>
